--- a/data/First_round_results/features&labels - features.xlsx
+++ b/data/First_round_results/features&labels - features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mholo\Desktop\OneDrive_2020-02-05\results analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B38A5A-9966-4B2D-90E5-A6F316A5A5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A694D1-2269-41B3-AD5C-7644B74D6EFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>ATGTATATCTCCTTCTTAAA</t>
   </si>
@@ -287,13 +287,286 @@
   </si>
   <si>
     <t>ATCTATATCTCCTTCTTAAA</t>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+  </si>
+  <si>
+    <t>REVERSE</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>CTTAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>GTTAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>ATTAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TCTAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TGTAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TATAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTGAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTAAAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTCAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTGAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTTAGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTACGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAGGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTATGAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAACAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAAAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAATAAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGCAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGGAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGTAGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAATGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGCAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGAAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGTAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGCGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGGGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGTGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGACATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGATATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGACATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGAGATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGAAATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATCTACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATGTACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATTTACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATACACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATAGACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATAAACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATCCAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATGCAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATTCAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATAAAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATAGAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATATAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATACCT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATACGT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATACTT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATACAC</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATACAG</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGAGATATACAA</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTTGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATACCTGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGAAGCGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTATGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATCACTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGAAGCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAATAGAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATCTGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAAGTATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGATAAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTCAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACGATCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACAGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTTATATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGAACATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCCGAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAATGTCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACGTACCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACCGTGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGACACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAATCCCATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGAGCGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAATATGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAACATTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTACATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGAAGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACTCCGTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATTACTATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACGAGACTATACAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +581,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,11 +624,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,734 +970,739 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>656.0283687943263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3">
-        <v>469.96466431095411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
-        <v>286.62420382165612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5">
-        <v>423.33333333333343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6">
-        <v>447.61904761904759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
-        <v>243.97590361445779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8">
-        <v>315.28662420382159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9">
-        <v>376.14678899082571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10">
-        <v>283.23699421965318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11">
-        <v>375.70621468926561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12">
-        <v>458.57988165680467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13">
-        <v>494.77351916376313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14">
-        <v>418.91891891891902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B15">
-        <v>362.06896551724139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16">
-        <v>281.64556962025318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B17">
-        <v>329.23076923076923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18">
-        <v>292.0353982300885</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B19">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20">
-        <v>264.61538461538458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21">
-        <v>301.10497237569058</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22">
-        <v>220.67039106145251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23">
-        <v>316.75392670157072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24">
-        <v>198.8636363636364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25">
-        <v>347.97297297297303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26">
-        <v>377.16262975778551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27">
-        <v>257.14285714285711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29">
-        <v>189.11174785100289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30">
-        <v>165.24216524216521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31">
-        <v>193.08357348703171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
-        <v>159.88372093023261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33">
-        <v>184.97109826589599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34">
-        <v>244.89795918367349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B35">
-        <v>252.7777777777778</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B36">
-        <v>212.88515406162469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37">
-        <v>362.77602523659311</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B38">
-        <v>287.16216216216219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B39">
-        <v>272.72727272727269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B40">
-        <v>229.1021671826625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B41">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B42">
-        <v>280.12048192771078</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B43">
-        <v>217.91044776119401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B44">
-        <v>162.7906976744186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B45">
-        <v>301.77514792899399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B46">
-        <v>326.47058823529409</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B47">
-        <v>330.48433048433048</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B48">
-        <v>362.01780415430272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B49">
-        <v>491.85667752442998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B50">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B51">
-        <v>268.9655172413793</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B52">
-        <v>408.39694656488552</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B53">
-        <v>330.27522935779808</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B54">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B55">
-        <v>309.81595092024543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B56">
-        <v>319.76744186046523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B57">
-        <v>300.30030030030031</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B58">
-        <v>330.21806853582552</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B59">
-        <v>408.53658536585363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B60">
-        <v>239.067055393586</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B61">
-        <v>503.18471337579621</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B62">
-        <v>393.93939393939388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B63">
-        <v>198.69706840390879</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B64">
-        <v>165.016501650165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B65">
-        <v>150.60240963855421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B66">
-        <v>331.7535545023697</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B67">
-        <v>194.52887537993919</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B68">
-        <v>187.13450292397661</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B69">
-        <v>183.80062305295951</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B70">
-        <v>198.2248520710059</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B71">
-        <v>237.08206686930089</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B72">
-        <v>227.0114942528736</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B73">
-        <v>258.52272727272731</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B74">
-        <v>231.45400593471811</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B75">
-        <v>222.5609756097561</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B76">
-        <v>179.1907514450867</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B77">
-        <v>317.07317073170731</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B78">
-        <v>181.0344827586207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B79">
-        <v>193.75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B80">
-        <v>180.12422360248451</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B81">
-        <v>216.46341463414629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B82">
-        <v>212.1212121212121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B83">
-        <v>239.74763406940059</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B84">
-        <v>339.33933933933929</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B85">
-        <v>293.44729344729348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B86">
-        <v>320.24169184290031</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B87">
-        <v>234.5679012345679</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B88">
-        <v>261.26126126126132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B89">
-        <v>234.04255319148939</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B90">
-        <v>203.96600566572241</v>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1584,6 +1869,27 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="ebbfb97d-8400-4246-978d-8b68e4a1ec72">2J45DRNPYS3J-2128470947-32</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="ebbfb97d-8400-4246-978d-8b68e4a1ec72">
+      <Url>https://csiroau.sharepoint.com/sites/SOLARIS/_layouts/15/DocIdRedir.aspx?ID=2J45DRNPYS3J-2128470947-32</Url>
+      <Description>2J45DRNPYS3J-2128470947-32</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1633,39 +1939,47 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="ebbfb97d-8400-4246-978d-8b68e4a1ec72">2J45DRNPYS3J-2128470947-32</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="ebbfb97d-8400-4246-978d-8b68e4a1ec72">
-      <Url>https://csiroau.sharepoint.com/sites/SOLARIS/_layouts/15/DocIdRedir.aspx?ID=2J45DRNPYS3J-2128470947-32</Url>
-      <Description>2J45DRNPYS3J-2128470947-32</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{586BE8A0-60C0-46DB-AF5A-C53AE34AD9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{586BE8A0-60C0-46DB-AF5A-C53AE34AD9A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="98fdb299-815b-4672-8b02-d1d8c19b8436"/>
+    <ds:schemaRef ds:uri="ebbfb97d-8400-4246-978d-8b68e4a1ec72"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9305D6-B2CE-4250-BA4A-3B782C91BD03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5DFF58-6893-48B8-8B78-FAB288EEC496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ebbfb97d-8400-4246-978d-8b68e4a1ec72"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA645CDF-675B-45A5-B557-4432D64D8B02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA645CDF-675B-45A5-B557-4432D64D8B02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5DFF58-6893-48B8-8B78-FAB288EEC496}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9305D6-B2CE-4250-BA4A-3B782C91BD03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>